--- a/document/tmp/詳細設計テンプレート.xlsx
+++ b/document/tmp/詳細設計テンプレート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D700617-E28F-4639-AADA-7B955DA4BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75BB0F-A790-4ED3-8539-D3A5A56C83A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>PGxxx詳細設計書</t>
     <rPh sb="5" eb="9">
@@ -638,6 +638,20 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納フォルダ</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,9 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2571,6 +2582,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2579,23 +2607,6 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3928,6 +3939,47 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="P6:AR6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="AS5:CS8"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="AO13:BE13"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="AO14:BE14"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:W17"/>
+    <mergeCell ref="X17:AN17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:W21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X11:AN11"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="AO11:BE11"/>
+    <mergeCell ref="AO17:BE17"/>
+    <mergeCell ref="G11:W11"/>
     <mergeCell ref="BW21:CM21"/>
     <mergeCell ref="BW22:CM22"/>
     <mergeCell ref="C23:F23"/>
@@ -3942,47 +3994,6 @@
     <mergeCell ref="AO22:BE22"/>
     <mergeCell ref="BF21:BV21"/>
     <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="X11:AN11"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="AO11:BE11"/>
-    <mergeCell ref="AO17:BE17"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="AO14:BE14"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:W17"/>
-    <mergeCell ref="X17:AN17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:W21"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G11:W11"/>
-    <mergeCell ref="P6:AR6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="AS5:CS8"/>
-    <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="AO13:BE13"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6080,118 +6091,6 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -6216,6 +6115,118 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP73"/>
+  <dimension ref="B2:CP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6390,151 +6401,123 @@
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
     </row>
+    <row r="7" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+    </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+    </row>
+    <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-    </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-    </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -6548,7 +6531,9 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="T12" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
@@ -6570,7 +6555,9 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
+      <c r="AP12" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
@@ -6844,280 +6831,276 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
     </row>
+    <row r="17" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+    </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+    </row>
+    <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
-    </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
     </row>
     <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+    </row>
+    <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10" t="s">
+    <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
-    </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-    </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -7131,7 +7114,9 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
+      <c r="T27" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -7153,7 +7138,9 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
       <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
+      <c r="AP27" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
@@ -7301,234 +7288,343 @@
       <c r="BI29" s="10"/>
       <c r="BJ29" s="10"/>
     </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
+    <row r="30" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+    </row>
+    <row r="31" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
+    </row>
+    <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="10" t="s">
+    <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="14" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14"/>
-      <c r="BR34" s="14"/>
-      <c r="BS34" s="14"/>
-      <c r="BT34" s="14"/>
-      <c r="BU34" s="14"/>
-      <c r="BV34" s="14"/>
-      <c r="BW34" s="14"/>
-      <c r="BX34" s="14"/>
-      <c r="BY34" s="14"/>
-      <c r="BZ34" s="14"/>
-      <c r="CA34" s="14"/>
-      <c r="CB34" s="14"/>
-      <c r="CC34" s="14"/>
-      <c r="CD34" s="14"/>
-      <c r="CE34" s="14"/>
-      <c r="CF34" s="14"/>
-      <c r="CG34" s="14"/>
-      <c r="CH34" s="14"/>
-      <c r="CI34" s="14"/>
-      <c r="CJ34" s="14"/>
-      <c r="CK34" s="14"/>
-      <c r="CL34" s="14"/>
-      <c r="CM34" s="14"/>
-      <c r="CN34" s="14"/>
-      <c r="CO34" s="14"/>
-      <c r="CP34" s="14"/>
-    </row>
-    <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
+      <c r="BM36" s="14"/>
+      <c r="BN36" s="14"/>
+      <c r="BO36" s="14"/>
+      <c r="BP36" s="14"/>
+      <c r="BQ36" s="14"/>
+      <c r="BR36" s="14"/>
+      <c r="BS36" s="14"/>
+      <c r="BT36" s="14"/>
+      <c r="BU36" s="14"/>
+      <c r="BV36" s="14"/>
+      <c r="BW36" s="14"/>
+      <c r="BX36" s="14"/>
+      <c r="BY36" s="14"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="14"/>
+      <c r="CB36" s="14"/>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
+      <c r="CE36" s="14"/>
+      <c r="CF36" s="14"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="14"/>
+      <c r="CJ36" s="14"/>
+      <c r="CK36" s="14"/>
+      <c r="CL36" s="14"/>
+      <c r="CM36" s="14"/>
+      <c r="CN36" s="14"/>
+      <c r="CO36" s="14"/>
+      <c r="CP36" s="14"/>
+    </row>
+    <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="4"/>
-    </row>
-    <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="1"/>
-      <c r="K36" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP36" s="5"/>
-    </row>
-    <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="1"/>
-      <c r="CP37" s="5"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="3"/>
+      <c r="BS37" s="3"/>
+      <c r="BT37" s="3"/>
+      <c r="BU37" s="3"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="3"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+      <c r="CH37" s="3"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="3"/>
+      <c r="CM37" s="3"/>
+      <c r="CN37" s="3"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="4"/>
     </row>
     <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CP38" s="5"/>
     </row>
@@ -7539,118 +7635,118 @@
       <c r="CP39" s="5"/>
     </row>
     <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1"/>
       <c r="I41" s="5"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
       <c r="CP41" s="5"/>
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
       <c r="CP42" s="5"/>
     </row>
     <row r="43" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
-      <c r="K43" t="s">
-        <v>76</v>
-      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
       <c r="CP43" s="5"/>
     </row>
     <row r="44" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7660,272 +7756,211 @@
       <c r="CP44" s="5"/>
     </row>
     <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="10"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="10"/>
-      <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
-      <c r="AV45" s="10"/>
-      <c r="AW45" s="10"/>
-      <c r="AX45" s="10"/>
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-      <c r="AV46" s="10"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
+      <c r="K47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
       <c r="CP47" s="5"/>
     </row>
     <row r="48" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1"/>
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
-      <c r="K48" t="s">
-        <v>78</v>
-      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="10"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
       <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
+      <c r="K51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="15"/>
-      <c r="AI52" s="15"/>
-      <c r="AJ52" s="15"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="15"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
       <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7938,182 +7973,119 @@
       <c r="B54" s="1"/>
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AS54" s="10"/>
-      <c r="AT54" s="10"/>
-      <c r="AU54" s="10"/>
-      <c r="AV54" s="10"/>
-      <c r="AW54" s="10"/>
-      <c r="AX54" s="10"/>
+      <c r="K54" t="s">
+        <v>82</v>
+      </c>
       <c r="CP54" s="5"/>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
       <c r="I55" s="5"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
-      <c r="AL55" s="10"/>
-      <c r="AM55" s="10"/>
-      <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
-      <c r="AS55" s="10"/>
-      <c r="AT55" s="10"/>
-      <c r="AU55" s="10"/>
-      <c r="AV55" s="10"/>
-      <c r="AW55" s="10"/>
-      <c r="AX55" s="10"/>
       <c r="CP55" s="5"/>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
+      <c r="K56" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
       <c r="CP56" s="5"/>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
       <c r="I57" s="5"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
-      <c r="AG57" s="15"/>
-      <c r="AH57" s="15"/>
-      <c r="AI57" s="15"/>
-      <c r="AJ57" s="15"/>
-      <c r="AK57" s="15"/>
-      <c r="AL57" s="15"/>
-      <c r="AM57" s="15"/>
-      <c r="AN57" s="15"/>
-      <c r="AO57" s="15"/>
-      <c r="AP57" s="15"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+      <c r="AR57" s="10"/>
+      <c r="AS57" s="10"/>
+      <c r="AT57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="10"/>
       <c r="CP57" s="5"/>
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
       <c r="I58" s="5"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="15"/>
-      <c r="AE58" s="15"/>
-      <c r="AF58" s="15"/>
-      <c r="AG58" s="15"/>
-      <c r="AH58" s="15"/>
-      <c r="AI58" s="15"/>
-      <c r="AJ58" s="15"/>
-      <c r="AK58" s="15"/>
-      <c r="AL58" s="15"/>
-      <c r="AM58" s="15"/>
-      <c r="AN58" s="15"/>
-      <c r="AO58" s="15"/>
-      <c r="AP58" s="15"/>
       <c r="CP58" s="5"/>
     </row>
     <row r="59" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="I59" s="5"/>
       <c r="J59" s="1"/>
       <c r="CP59" s="5"/>
@@ -8126,7 +8098,7 @@
     </row>
     <row r="61" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="1"/>
@@ -8139,20 +8111,17 @@
       <c r="CP62" s="5"/>
     </row>
     <row r="63" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="1"/>
       <c r="CP63" s="5"/>
     </row>
     <row r="64" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="I64" s="5"/>
       <c r="J64" s="1"/>
-      <c r="K64" t="s">
-        <v>70</v>
-      </c>
       <c r="CP64" s="5"/>
     </row>
     <row r="65" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8162,62 +8131,62 @@
       <c r="CP65" s="5"/>
     </row>
     <row r="66" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I66" s="5"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
+      <c r="K66" t="s">
+        <v>70</v>
+      </c>
       <c r="CP66" s="5"/>
     </row>
     <row r="67" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1"/>
       <c r="I67" s="5"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
       <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1"/>
       <c r="I68" s="5"/>
       <c r="J68" s="1"/>
+      <c r="K68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
       <c r="CP68" s="5"/>
     </row>
     <row r="69" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="I69" s="5"/>
       <c r="J69" s="1"/>
-      <c r="K69" t="s">
-        <v>85</v>
-      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
       <c r="CP69" s="5"/>
     </row>
     <row r="70" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8228,10 +8197,13 @@
     </row>
     <row r="71" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="1"/>
+      <c r="K71" t="s">
+        <v>85</v>
+      </c>
       <c r="CP71" s="5"/>
     </row>
     <row r="72" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8241,124 +8213,192 @@
       <c r="CP72" s="5"/>
     </row>
     <row r="73" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="1"/>
+      <c r="CP73" s="5"/>
+    </row>
+    <row r="74" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="1"/>
+      <c r="CP74" s="5"/>
+    </row>
+    <row r="75" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="7" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7"/>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
-      <c r="AJ73" s="7"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="7"/>
-      <c r="AM73" s="7"/>
-      <c r="AN73" s="7"/>
-      <c r="AO73" s="7"/>
-      <c r="AP73" s="7"/>
-      <c r="AQ73" s="7"/>
-      <c r="AR73" s="7"/>
-      <c r="AS73" s="7"/>
-      <c r="AT73" s="7"/>
-      <c r="AU73" s="7"/>
-      <c r="AV73" s="7"/>
-      <c r="AW73" s="7"/>
-      <c r="AX73" s="7"/>
-      <c r="AY73" s="7"/>
-      <c r="AZ73" s="7"/>
-      <c r="BA73" s="7"/>
-      <c r="BB73" s="7"/>
-      <c r="BC73" s="7"/>
-      <c r="BD73" s="7"/>
-      <c r="BE73" s="7"/>
-      <c r="BF73" s="7"/>
-      <c r="BG73" s="7"/>
-      <c r="BH73" s="7"/>
-      <c r="BI73" s="7"/>
-      <c r="BJ73" s="7"/>
-      <c r="BK73" s="7"/>
-      <c r="BL73" s="7"/>
-      <c r="BM73" s="7"/>
-      <c r="BN73" s="7"/>
-      <c r="BO73" s="7"/>
-      <c r="BP73" s="7"/>
-      <c r="BQ73" s="7"/>
-      <c r="BR73" s="7"/>
-      <c r="BS73" s="7"/>
-      <c r="BT73" s="7"/>
-      <c r="BU73" s="7"/>
-      <c r="BV73" s="7"/>
-      <c r="BW73" s="7"/>
-      <c r="BX73" s="7"/>
-      <c r="BY73" s="7"/>
-      <c r="BZ73" s="7"/>
-      <c r="CA73" s="7"/>
-      <c r="CB73" s="7"/>
-      <c r="CC73" s="7"/>
-      <c r="CD73" s="7"/>
-      <c r="CE73" s="7"/>
-      <c r="CF73" s="7"/>
-      <c r="CG73" s="7"/>
-      <c r="CH73" s="7"/>
-      <c r="CI73" s="7"/>
-      <c r="CJ73" s="7"/>
-      <c r="CK73" s="7"/>
-      <c r="CL73" s="7"/>
-      <c r="CM73" s="7"/>
-      <c r="CN73" s="7"/>
-      <c r="CO73" s="7"/>
-      <c r="CP73" s="8"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7"/>
+      <c r="AY75" s="7"/>
+      <c r="AZ75" s="7"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7"/>
+      <c r="BC75" s="7"/>
+      <c r="BD75" s="7"/>
+      <c r="BE75" s="7"/>
+      <c r="BF75" s="7"/>
+      <c r="BG75" s="7"/>
+      <c r="BH75" s="7"/>
+      <c r="BI75" s="7"/>
+      <c r="BJ75" s="7"/>
+      <c r="BK75" s="7"/>
+      <c r="BL75" s="7"/>
+      <c r="BM75" s="7"/>
+      <c r="BN75" s="7"/>
+      <c r="BO75" s="7"/>
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="7"/>
+      <c r="BT75" s="7"/>
+      <c r="BU75" s="7"/>
+      <c r="BV75" s="7"/>
+      <c r="BW75" s="7"/>
+      <c r="BX75" s="7"/>
+      <c r="BY75" s="7"/>
+      <c r="BZ75" s="7"/>
+      <c r="CA75" s="7"/>
+      <c r="CB75" s="7"/>
+      <c r="CC75" s="7"/>
+      <c r="CD75" s="7"/>
+      <c r="CE75" s="7"/>
+      <c r="CF75" s="7"/>
+      <c r="CG75" s="7"/>
+      <c r="CH75" s="7"/>
+      <c r="CI75" s="7"/>
+      <c r="CJ75" s="7"/>
+      <c r="CK75" s="7"/>
+      <c r="CL75" s="7"/>
+      <c r="CM75" s="7"/>
+      <c r="CN75" s="7"/>
+      <c r="CO75" s="7"/>
+      <c r="CP75" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="AC49:AP49"/>
-    <mergeCell ref="AC50:AP50"/>
-    <mergeCell ref="K54:AX54"/>
-    <mergeCell ref="K55:AX55"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="T10:AO10"/>
-    <mergeCell ref="AP10:BJ10"/>
+  <mergeCells count="84">
+    <mergeCell ref="J36:CP36"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="L7:AV7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:AV8"/>
+    <mergeCell ref="K68:X68"/>
+    <mergeCell ref="K69:X69"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:AB42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:AB43"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:AB51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:AB52"/>
+    <mergeCell ref="K47:AX47"/>
+    <mergeCell ref="K48:AX48"/>
+    <mergeCell ref="AC42:AX42"/>
+    <mergeCell ref="AC43:AX43"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="T31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:S27"/>
+    <mergeCell ref="T27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="T30:AO30"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="P22:AK22"/>
+    <mergeCell ref="AL22:BF22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="P23:AK23"/>
+    <mergeCell ref="AL23:BF23"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="T17:AO17"/>
+    <mergeCell ref="AP17:BJ17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:AO18"/>
+    <mergeCell ref="AP18:BJ18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="AP15:BJ15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="AP16:BJ16"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="L4:AV4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="L5:AV5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="L6:AV6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="T11:AO11"/>
-    <mergeCell ref="AP11:BJ11"/>
+    <mergeCell ref="AC51:AP51"/>
+    <mergeCell ref="AC52:AP52"/>
+    <mergeCell ref="K56:AX56"/>
+    <mergeCell ref="K57:AX57"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:S12"/>
     <mergeCell ref="T12:AO12"/>
@@ -8371,56 +8411,6 @@
     <mergeCell ref="F14:S14"/>
     <mergeCell ref="T14:AO14"/>
     <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="AL20:BF20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="AL21:BF21"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="T25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="T26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="K66:X66"/>
-    <mergeCell ref="K67:X67"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:AB40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="O41:AB41"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:AB49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:AB50"/>
-    <mergeCell ref="K45:AX45"/>
-    <mergeCell ref="K46:AX46"/>
-    <mergeCell ref="AC40:AX40"/>
-    <mergeCell ref="AC41:AX41"/>
-    <mergeCell ref="J34:CP34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
